--- a/biology/Zoologie/Atractus_natans/Atractus_natans.xlsx
+++ b/biology/Zoologie/Atractus_natans/Atractus_natans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atractus natans est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractus natans est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil[1]. Elle se rencontre au Pará et en Amazonas.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre au Pará et en Amazonas.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atractus natans[2] mesure pour les mâles jusqu'à 253 mm dont 32 mm pour la queue et, pour les femelles, jusqu'à 308 mm dont 25 mm pour la queue. Sa tête est fine et de forme conique.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractus natans mesure pour les mâles jusqu'à 253 mm dont 32 mm pour la queue et, pour les femelles, jusqu'à 308 mm dont 25 mm pour la queue. Sa tête est fine et de forme conique.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du latin natans, « flottant », lui a été donné en référence au fait que plusieurs spécimens capturés par les auteurs l'ont été dans des troncs d'arbres pourris flottant dans la forêt inondée.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hoogmoed &amp; Prudente, 2003 : A new species of Atractus (Reptilia: Ophidia: Colubridae: Dipsadinae) from the Amazon forest region in Brazil. Zoologische Mededelingen vol. 77, no 15/36, p. 425-440 (texte intégral).</t>
         </is>
